--- a/SODO/Huong Lap/HuongLap337/DapThuyLoi/DS.xlsx
+++ b/SODO/Huong Lap/HuongLap337/DapThuyLoi/DS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8.CoQuan\SODO\Huong Lap\HuongLap337\DapThuyLoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SODO\Huong Lap\HuongLap337\DapThuyLoi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
     <sheet name="TongHop" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1214,23 +1214,81 @@
     </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="26" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1254,98 +1312,40 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="25" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="26" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="27" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="25" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2057,8 +2057,8 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H14" activeCellId="8" sqref="H5 H7 H8 H9 H10 H11 H12 H13 H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2077,77 +2077,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52" t="s">
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="74" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="55"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="75"/>
     </row>
     <row r="4" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="5" t="s">
         <v>37</v>
       </c>
@@ -2157,8 +2157,8 @@
       <c r="J4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="53"/>
-      <c r="L4" s="55"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="75"/>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -2573,70 +2573,70 @@
       <c r="A17" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="57" t="s">
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60" t="s">
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
       <c r="F19" s="30"/>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="49"/>
+      <c r="H19" s="72"/>
       <c r="I19" s="31"/>
-      <c r="J19" s="49" t="s">
+      <c r="J19" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
       <c r="B20" s="33"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
@@ -2692,34 +2692,25 @@
       <c r="B24" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
       <c r="F24" s="46"/>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="51"/>
+      <c r="H24" s="73"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="51" t="s">
+      <c r="J24" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:J3"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="J24:L24"/>
     <mergeCell ref="K2:K4"/>
@@ -2733,6 +2724,15 @@
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.23" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2761,7 +2761,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="88" t="s">
         <v>77</v>
       </c>
       <c r="B1" s="89"/>
@@ -2771,186 +2771,186 @@
       <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="54" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90">
+      <c r="A4" s="62">
         <v>1</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="55">
         <v>57</v>
       </c>
-      <c r="E4" s="82">
+      <c r="E4" s="55">
         <v>1044</v>
       </c>
-      <c r="F4" s="83"/>
+      <c r="F4" s="56"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90">
+      <c r="A5" s="62">
         <v>2</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="92">
+      <c r="D5" s="64">
         <v>5</v>
       </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="93"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="84">
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="57">
         <f>SUM(D4:D5)</f>
         <v>62</v>
       </c>
-      <c r="E6" s="84">
+      <c r="E6" s="57">
         <f>SUM(E4:E4)</f>
         <v>1044</v>
       </c>
-      <c r="F6" s="85"/>
+      <c r="F6" s="58"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="88"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
     </row>
     <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="74"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="48"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
     </row>
     <row r="15" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
     </row>
     <row r="16" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2974,11 +2974,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
